--- a/data/trans_camb/P23_DUKE_AF_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 12,48</t>
+          <t>-14,24; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 16,07</t>
+          <t>-20,58; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 9,61</t>
+          <t>-10,57; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 22,63</t>
+          <t>-9,57; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 8,29</t>
+          <t>-6,45; 13,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 13,86</t>
+          <t>-9,81; 9,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 5,57</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 4,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 7,35</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>-0,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-3,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 88,24</t>
+          <t>-17,15; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 109,72</t>
+          <t>-24,74; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 68,06</t>
+          <t>-13,0; 13,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 150,67</t>
+          <t>-13,61; 15,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 56,21</t>
+          <t>-8,77; 21,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 89,18</t>
+          <t>-13,93; 15,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-12,84; 7,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,13; 6,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 10,71</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-7,1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 8,3</t>
+          <t>-14,71; 11,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -0,07</t>
+          <t>-13,11; 12,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 6,26</t>
+          <t>-15,8; 10,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 5,16</t>
+          <t>-6,12; 14,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 4,72</t>
+          <t>-15,68; 5,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 0,83</t>
+          <t>-18,12; 4,02</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 9,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 5,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,81; 3,15</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-39,33%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>-7,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,59%</t>
+          <t>-9,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 55,21</t>
+          <t>-21,13; 19,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 4,37</t>
+          <t>-18,99; 22,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 39,91</t>
+          <t>-22,61; 17,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 31,4</t>
+          <t>-7,67; 22,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 27,31</t>
+          <t>-20,8; 8,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 6,32</t>
+          <t>-23,99; 6,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 14,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; 7,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 4,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>22,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>35,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>41,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>8,27</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,45</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 15,84</t>
+          <t>-8,62; 60,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 35,8</t>
+          <t>2,93; 71,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 7,55</t>
+          <t>15,33; 71,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 9,38</t>
+          <t>-13,75; 28,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 8,05</t>
+          <t>-20,53; 22,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 21,57</t>
+          <t>-13,68; 28,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 39,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 42,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 50,22</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>113,54%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,57%</t>
+          <t>82,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42,88%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; 307,48</t>
+          <t>-13,19; 243,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 1029,97</t>
+          <t>3,71; 338,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 43,85</t>
+          <t>19,01; 318,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 62,88</t>
+          <t>-18,26; 49,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 69,53</t>
+          <t>-25,34; 37,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,03; 155,8</t>
+          <t>-16,63; 49,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 94,76</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 108,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 125,84</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 7,91</t>
+          <t>-9,5; 8,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,87</t>
+          <t>-10,26; 9,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,08</t>
+          <t>-4,64; 13,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,62</t>
+          <t>-4,82; 8,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,82</t>
+          <t>-7,11; 6,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,01</t>
+          <t>-9,47; 4,48</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 6,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 5,14</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 6,6</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 52,74</t>
+          <t>-12,65; 12,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 54,05</t>
+          <t>-13,86; 14,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 30,23</t>
+          <t>-6,48; 20,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 57,92</t>
+          <t>-6,48; 13,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 28,96</t>
+          <t>-9,76; 9,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 35,99</t>
+          <t>-13,02; 6,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 9,58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 7,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 10,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
